--- a/biology/Virologie/Pisuviricota/Pisuviricota.xlsx
+++ b/biology/Virologie/Pisuviricota/Pisuviricota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pisuviricota est un embranchement de virus à ARN, qui comprend tous les virus à ARN à simple brin à polarité positive et ceux à double brin, qui infectent les eucaryotes, et ne sont pas membres des embranchements des Kitrinoviricota, Lenarviricota ou Duplornaviricota[2].
-Le nom du groupe est une abréviation syllabique de « picornavirus supergroup » avec le suffixe -viricota indiquant un embranchement de virus[3].
-Les analyses phylogénétiques suggèrent que les familles des Birnaviridae et des Permutotetraviridae, tous deux actuellement non assignés à un embranchement du règne des Orthornavirae, appartiennent également à l’embranchement des Pisuviricota, et que les deux sont des groupes frères[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pisuviricota est un embranchement de virus à ARN, qui comprend tous les virus à ARN à simple brin à polarité positive et ceux à double brin, qui infectent les eucaryotes, et ne sont pas membres des embranchements des Kitrinoviricota, Lenarviricota ou Duplornaviricota.
+Le nom du groupe est une abréviation syllabique de « picornavirus supergroup » avec le suffixe -viricota indiquant un embranchement de virus.
+Les analyses phylogénétiques suggèrent que les familles des Birnaviridae et des Permutotetraviridae, tous deux actuellement non assignés à un embranchement du règne des Orthornavirae, appartiennent également à l’embranchement des Pisuviricota, et que les deux sont des groupes frères.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Classes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les classes suivantes sont reconnues:
 Duplopiviricetes
